--- a/main/Cases/ExampleBattery.xlsx
+++ b/main/Cases/ExampleBattery.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mvalois\ownCloud\AGISTIN\UPC\AGISTIN_UPC\agistin\main\Cases\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mvalois\Desktop\CurrentProjects\AGISTIN\GitHub Repositories\Uni-Kassel_Task-3.2\agistin\main\Cases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75769001-B2CC-45D0-895F-3E494B1CF9D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D32504ED-F482-410B-9F44-7FB1758BA3C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-24810" yWindow="1995" windowWidth="21600" windowHeight="11385" activeTab="2" xr2:uid="{A5667F64-109C-47C3-884E-1862F3FE77BD}"/>
+    <workbookView xWindow="-38520" yWindow="-2085" windowWidth="38640" windowHeight="21240" activeTab="2" xr2:uid="{A5667F64-109C-47C3-884E-1862F3FE77BD}"/>
   </bookViews>
   <sheets>
     <sheet name="Grid" sheetId="12" r:id="rId1"/>
@@ -519,7 +519,7 @@
   <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M2" sqref="M2"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -573,10 +573,10 @@
         <v>15</v>
       </c>
       <c r="B2">
-        <v>50000</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>80000</v>
+        <v>24000</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -587,15 +587,15 @@
       <c r="F2">
         <v>0</v>
       </c>
-      <c r="G2">
-        <f>-100000</f>
-        <v>-100000</v>
-      </c>
-      <c r="H2">
-        <v>80000</v>
+      <c r="G2" s="2">
+        <f>1000</f>
+        <v>1000</v>
+      </c>
+      <c r="H2" s="2">
+        <v>24000</v>
       </c>
       <c r="I2">
-        <v>80000</v>
+        <v>1000</v>
       </c>
       <c r="J2" t="s">
         <v>16</v>
@@ -603,9 +603,9 @@
       <c r="K2" t="s">
         <v>17</v>
       </c>
-      <c r="L2" s="2">
-        <f>1/0.2</f>
-        <v>5</v>
+      <c r="L2">
+        <f>-1/0.2</f>
+        <v>-5</v>
       </c>
       <c r="M2" t="s">
         <v>4</v>
